--- a/tests/CellScript.Client.Tests/datas/book1.xlsx
+++ b/tests/CellScript.Client.Tests/datas/book1.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A6CE18-EC60-428D-BED8-B86E26A86491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9862A6B-6706-4B85-A072-44595B06E382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leftOf" sheetId="1" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="3" r:id="rId2"/>
     <sheet name="Script" sheetId="4" r:id="rId3"/>
     <sheet name="Query" sheetId="5" r:id="rId4"/>
-    <sheet name="Table.Item" sheetId="2" r:id="rId5"/>
+    <sheet name="Table" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1564,45 +1564,105 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="11" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="16" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="6" borderId="11" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,73 +1675,13 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="11" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="16" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2136,11 +2136,11 @@
     <row r="1" spans="1:2">
       <c r="A1" t="e" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xll.testFromCore()</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="B1" t="e" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">_xll.leftOf(A1,"3")</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="K2" t="e" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">_xll.eurHeader(A1:I5)</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="K3" t="e" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">_xll.pvt.transfer(Table4[#All])</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B4" t="e" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">_xll.eval(B2,B3)</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" thickBot="1">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B13" t="e" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">_xll.eval(Table13[#All],B12)</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -2505,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678492-3E86-45D9-AD11-8F8E281F39F4}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2534,10 +2534,10 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="164" t="s">
+      <c r="W1" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="165"/>
+      <c r="X1" s="186"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
@@ -2566,8 +2566,8 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="167"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="188"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
@@ -2596,8 +2596,8 @@
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="169"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="190"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
@@ -2702,14 +2702,14 @@
       <c r="V6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="170" t="s">
+      <c r="W6" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="170"/>
+      <c r="X6" s="178"/>
       <c r="Y6" s="41"/>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="176"/>
+      <c r="AA6" s="176"/>
+      <c r="AB6" s="177"/>
     </row>
     <row r="7" spans="1:28" ht="15.6">
       <c r="A7" s="39"/>
@@ -2734,8 +2734,8 @@
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
       <c r="Y7" s="41"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="42"/>
@@ -2772,88 +2772,88 @@
       <c r="AB8" s="43"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="163" t="s">
+      <c r="F9" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="158" t="s">
+      <c r="G9" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="163" t="s">
+      <c r="H9" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="158" t="s">
+      <c r="I9" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="158" t="s">
+      <c r="J9" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="160" t="s">
+      <c r="K9" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="158" t="s">
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="197"/>
+      <c r="S9" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="158" t="s">
+      <c r="T9" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="171" t="s">
+      <c r="U9" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="173" t="s">
+      <c r="V9" s="193" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="179" t="s">
+      <c r="W9" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="181" t="s">
+      <c r="X9" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="183" t="s">
+      <c r="Y9" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="177" t="s">
+      <c r="Z9" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="177" t="s">
+      <c r="AA9" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="178" t="s">
+      <c r="AB9" s="180" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="185"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
       <c r="K10" s="49">
         <v>28</v>
       </c>
@@ -2878,44 +2878,44 @@
       <c r="R10" s="49">
         <v>35</v>
       </c>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="178"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="180"/>
     </row>
     <row r="11" spans="1:28" ht="27.6">
-      <c r="A11" s="186">
+      <c r="A11" s="164">
         <v>16501</v>
       </c>
-      <c r="B11" s="186">
+      <c r="B11" s="164">
         <v>91338035</v>
       </c>
       <c r="C11" s="51">
         <v>532325</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="186"/>
-      <c r="H11" s="187" t="s">
+      <c r="G11" s="164"/>
+      <c r="H11" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="187" t="s">
+      <c r="I11" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="188"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="52">
         <v>1</v>
       </c>
@@ -2953,13 +2953,13 @@
       <c r="V11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="W11" s="191" t="s">
+      <c r="W11" s="170" t="s">
         <v>60</v>
       </c>
       <c r="X11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Y11" s="194">
+      <c r="Y11" s="158">
         <v>43171</v>
       </c>
       <c r="Z11" s="30"/>
@@ -2970,18 +2970,18 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.6">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="51">
         <v>532326</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="189"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="52">
         <v>1</v>
       </c>
@@ -3019,11 +3019,11 @@
       <c r="V12" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="W12" s="191"/>
+      <c r="W12" s="170"/>
       <c r="X12" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="195"/>
+      <c r="Y12" s="159"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="58">
@@ -3032,18 +3032,18 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.6">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="51">
         <v>533180</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="189"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="163"/>
       <c r="K13" s="52"/>
       <c r="L13" s="53"/>
       <c r="M13" s="52">
@@ -3067,11 +3067,11 @@
       <c r="V13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="191"/>
-      <c r="X13" s="196" t="s">
+      <c r="W13" s="170"/>
+      <c r="X13" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="Y13" s="195"/>
+      <c r="Y13" s="159"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="58">
@@ -3080,18 +3080,18 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.6">
-      <c r="A14" s="186"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="164"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="51">
         <v>533181</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="190"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="169"/>
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
       <c r="M14" s="52"/>
@@ -3115,9 +3115,9 @@
       <c r="V14" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="191"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="195"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="159"/>
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
       <c r="AB14" s="58">
@@ -3126,18 +3126,18 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.6">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="51">
         <v>533182</v>
       </c>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="189"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="52"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -3161,9 +3161,9 @@
       <c r="V15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="191"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="183"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="160"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
       <c r="AB15" s="58">
@@ -3172,18 +3172,18 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.6">
-      <c r="A16" s="186"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="51">
         <v>533183</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="189"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="163"/>
       <c r="K16" s="52"/>
       <c r="L16" s="53"/>
       <c r="M16" s="53"/>
@@ -3207,9 +3207,9 @@
       <c r="V16" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W16" s="191"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="183"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="160"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
       <c r="AB16" s="58">
@@ -3218,18 +3218,18 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.6">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="51">
         <v>533184</v>
       </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="189"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="163"/>
       <c r="K17" s="52"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
@@ -3253,9 +3253,9 @@
       <c r="V17" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="191"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="183"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="160"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="30"/>
       <c r="AB17" s="58">
@@ -3264,25 +3264,25 @@
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
       <c r="T18" s="61">
         <f>SUM(T11:T17)</f>
         <v>298</v>
@@ -3666,23 +3666,36 @@
     </row>
     <row r="31" spans="1:28">
       <c r="D31" t="e" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">_xll.range(U9)</f>
-        <v>#VALUE!</v>
+        <f t="array" aca="1" ref="D31" ca="1">range(U9)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="e" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">_xll.raw(A1:AB27)</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="Y11:Y17"/>
-    <mergeCell ref="X13:X17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="W1:X3"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A18:S18"/>
     <mergeCell ref="I11:I17"/>
@@ -3699,24 +3712,11 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="W1:X3"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="Y11:Y17"/>
+    <mergeCell ref="X13:X17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="H11:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3728,8 +3728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA4541B-84B9-49CF-9BF0-E9F3818E4654}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="F1" t="e" cm="1">
         <f t="array" aca="1" ref="F1" ca="1">_xll.it(Table134[#All],"US")</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/tests/CellScript.Client.Tests/datas/book1.xlsx
+++ b/tests/CellScript.Client.Tests/datas/book1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21602"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9862A6B-6706-4B85-A072-44595B06E382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE67149-485F-4824-993C-C7648936FC18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,58 +1564,55 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="11" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="16" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="11" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="16" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1624,9 +1621,6 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,43 +1639,49 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="11" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="16" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="11" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="16" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2127,9 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:P4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -2534,10 +2532,10 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="185" t="s">
+      <c r="W1" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="186"/>
+      <c r="X1" s="165"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
@@ -2566,8 +2564,8 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="188"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="167"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
@@ -2596,8 +2594,8 @@
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="190"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="169"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
@@ -2702,14 +2700,14 @@
       <c r="V6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="178" t="s">
+      <c r="W6" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="178"/>
+      <c r="X6" s="170"/>
       <c r="Y6" s="41"/>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="176"/>
-      <c r="AB6" s="177"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="176"/>
     </row>
     <row r="7" spans="1:28" ht="15.6">
       <c r="A7" s="39"/>
@@ -2734,8 +2732,8 @@
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
       <c r="Y7" s="41"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="42"/>
@@ -2772,88 +2770,88 @@
       <c r="AB8" s="43"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="171" t="s">
+      <c r="E9" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="175" t="s">
+      <c r="F9" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="171" t="s">
+      <c r="G9" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="175" t="s">
+      <c r="H9" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="171" t="s">
+      <c r="I9" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="171" t="s">
+      <c r="J9" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="196"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="171" t="s">
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="171" t="s">
+      <c r="T9" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="191" t="s">
+      <c r="U9" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="193" t="s">
+      <c r="V9" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="181" t="s">
+      <c r="W9" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="183" t="s">
+      <c r="X9" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="160" t="s">
+      <c r="Y9" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="179" t="s">
+      <c r="Z9" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="179" t="s">
+      <c r="AA9" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="180" t="s">
+      <c r="AB9" s="178" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="167"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="49">
         <v>28</v>
       </c>
@@ -2878,44 +2876,44 @@
       <c r="R10" s="49">
         <v>35</v>
       </c>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="192"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="184"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="180"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="178"/>
     </row>
     <row r="11" spans="1:28" ht="27.6">
-      <c r="A11" s="164">
+      <c r="A11" s="186">
         <v>16501</v>
       </c>
-      <c r="B11" s="164">
+      <c r="B11" s="186">
         <v>91338035</v>
       </c>
       <c r="C11" s="51">
         <v>532325</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165" t="s">
+      <c r="G11" s="186"/>
+      <c r="H11" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="168"/>
+      <c r="J11" s="188"/>
       <c r="K11" s="52">
         <v>1</v>
       </c>
@@ -2953,13 +2951,13 @@
       <c r="V11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="W11" s="170" t="s">
+      <c r="W11" s="191" t="s">
         <v>60</v>
       </c>
       <c r="X11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Y11" s="158">
+      <c r="Y11" s="194">
         <v>43171</v>
       </c>
       <c r="Z11" s="30"/>
@@ -2970,18 +2968,18 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.6">
-      <c r="A12" s="164"/>
-      <c r="B12" s="164"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="51">
         <v>532326</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="163"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="189"/>
       <c r="K12" s="52">
         <v>1</v>
       </c>
@@ -3019,11 +3017,11 @@
       <c r="V12" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="W12" s="170"/>
+      <c r="W12" s="191"/>
       <c r="X12" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="159"/>
+      <c r="Y12" s="195"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="58">
@@ -3032,18 +3030,18 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.6">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="51">
         <v>533180</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="163"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="189"/>
       <c r="K13" s="52"/>
       <c r="L13" s="53"/>
       <c r="M13" s="52">
@@ -3067,11 +3065,11 @@
       <c r="V13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="170"/>
-      <c r="X13" s="161" t="s">
+      <c r="W13" s="191"/>
+      <c r="X13" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="Y13" s="159"/>
+      <c r="Y13" s="195"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="58">
@@ -3080,18 +3078,18 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.6">
-      <c r="A14" s="164"/>
-      <c r="B14" s="164"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="51">
         <v>533181</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="169"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="190"/>
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
       <c r="M14" s="52"/>
@@ -3115,9 +3113,9 @@
       <c r="V14" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="170"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="159"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="195"/>
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
       <c r="AB14" s="58">
@@ -3126,18 +3124,18 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.6">
-      <c r="A15" s="164"/>
-      <c r="B15" s="164"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="51">
         <v>533182</v>
       </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="163"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="189"/>
       <c r="K15" s="52"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -3161,9 +3159,9 @@
       <c r="V15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W15" s="170"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="160"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="183"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
       <c r="AB15" s="58">
@@ -3172,18 +3170,18 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.6">
-      <c r="A16" s="164"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="51">
         <v>533183</v>
       </c>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="163"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="52"/>
       <c r="L16" s="53"/>
       <c r="M16" s="53"/>
@@ -3207,9 +3205,9 @@
       <c r="V16" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W16" s="170"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="160"/>
+      <c r="W16" s="191"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="183"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
       <c r="AB16" s="58">
@@ -3218,18 +3216,18 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.6">
-      <c r="A17" s="164"/>
-      <c r="B17" s="164"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="51">
         <v>533184</v>
       </c>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="163"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="189"/>
       <c r="K17" s="52"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
@@ -3253,9 +3251,9 @@
       <c r="V17" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="170"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="160"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="183"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="30"/>
       <c r="AB17" s="58">
@@ -3264,25 +3262,25 @@
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="164"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
       <c r="T18" s="61">
         <f>SUM(T11:T17)</f>
         <v>298</v>
@@ -3678,24 +3676,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="W1:X3"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y17"/>
+    <mergeCell ref="X13:X17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="H11:H17"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A18:S18"/>
     <mergeCell ref="I11:I17"/>
@@ -3712,11 +3697,24 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="Y11:Y17"/>
-    <mergeCell ref="X13:X17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="W1:X3"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3726,15 +3724,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA4541B-84B9-49CF-9BF0-E9F3818E4654}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3744,30 +3742,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="e" cm="1">
-        <f t="array" aca="1" ref="F1" ca="1">_xll.it(Table134[#All],"US")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="F4" t="str" cm="1">
+        <f t="array" ref="F4:H6">_xll.TestTable(Table134[#All])</f>
+        <v>US</v>
+      </c>
+      <c r="G4" t="str">
+        <v>UK</v>
+      </c>
+      <c r="H4" t="str">
+        <v>EUR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
         <v>37</v>
       </c>
     </row>

--- a/tests/CellScript.Client.Tests/datas/book1.xlsx
+++ b/tests/CellScript.Client.Tests/datas/book1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE67149-485F-4824-993C-C7648936FC18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E108903E-C620-47A2-9879-925039D137BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="leftOf" sheetId="1" r:id="rId1"/>
-    <sheet name="PivotTable" sheetId="3" r:id="rId2"/>
-    <sheet name="Script" sheetId="4" r:id="rId3"/>
-    <sheet name="Query" sheetId="5" r:id="rId4"/>
-    <sheet name="Table" sheetId="2" r:id="rId5"/>
+    <sheet name="ExcelReference" sheetId="6" r:id="rId1"/>
+    <sheet name="Table" sheetId="2" r:id="rId2"/>
+    <sheet name="ExcelVector" sheetId="7" r:id="rId3"/>
+    <sheet name="Script" sheetId="4" r:id="rId4"/>
+    <sheet name="Query" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,14 +29,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>US</t>
   </si>
@@ -65,57 +62,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Style No.</t>
-  </si>
-  <si>
-    <t>Shoe name</t>
-  </si>
-  <si>
-    <t>colour</t>
-  </si>
-  <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>ALL BLACK</t>
-  </si>
-  <si>
-    <t>ALL NIGHT WHITE</t>
-  </si>
-  <si>
-    <t>ALL NIGHT TOTALLY BLACK</t>
-  </si>
-  <si>
-    <t>ALL NIGHT BLACK</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -135,12 +81,6 @@
   </si>
   <si>
     <t>fun a -&gt; a + "8"</t>
-  </si>
-  <si>
-    <t>#load "Packages.fsx"                                         
-open CellScript.Core
-fun (table: Table) -&gt;
-    table</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -521,20 +461,34 @@
   <si>
     <t>Pairs      对数</t>
   </si>
+  <si>
+    <t>MyAddress212</t>
+  </si>
+  <si>
+    <t>Hello8</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>#load "Packages.fsx"                                         
+open CellScript.Core
+fun (table: Table) -&gt;
+    table</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -542,7 +496,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -550,7 +504,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -558,7 +512,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,7 +520,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -742,30 +696,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="18"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -808,6 +762,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1191,7 +1152,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1200,19 +1161,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,8 +1220,8 @@
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1272,7 +1233,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,10 +1251,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1308,7 +1269,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1338,7 +1299,7 @@
     <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,8 +1341,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1462,7 +1423,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,7 +1489,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1540,7 +1501,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1549,7 +1510,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1582,22 +1543,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1609,10 +1570,10 @@
     <xf numFmtId="0" fontId="42" fillId="6" borderId="16" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1627,16 +1588,16 @@
     <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="6" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,7 +1624,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1678,10 +1639,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1694,41 +1655,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Number" xfId="5" xr:uid="{34E88902-26ED-442A-AEFA-56AC453478E6}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1821,18 +1748,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEB5FD17-6FF3-41C2-8054-4135722D5009}" name="Table4" displayName="Table4" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I7" xr:uid="{D7D506BB-2E39-457E-BC8F-42BC417056E4}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7D534931-B2A6-42AB-902B-F8AF830663BC}" name="Style No." dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{3DB942CE-ABA9-466C-AB7D-E76B1FA501CD}" name="Shoe name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D858B146-5871-45B6-8607-1772AA01D534}" name="colour" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{38ADA22E-D8E2-468D-BB65-4CFAD53724F9}" name="35" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7AE8D9E5-B6A7-4E2C-B912-BCCE0DDA6B5A}" name="36" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B998F2CE-0459-417D-AAFA-30CC9EF1B9A5}" name="37" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{84AA8325-C6BB-4F39-B209-76FE591FAD22}" name="38" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F58CDE8C-FB22-4EB4-A9AB-C53F57F277D3}" name="39" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{704BFFB5-7868-4380-B106-CD87D3854049}" name="40" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0654FFFF-BD04-49C1-8888-80CE039F28D8}" name="Table134" displayName="Table134" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{54273B06-397C-439E-906A-CD7260C6DE28}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C05BFDAD-CFDD-4323-B612-6AD2BF733AC3}" name="US"/>
+    <tableColumn id="2" xr3:uid="{61414270-F5FF-4CEA-85EC-810FBCEA131D}" name="UK"/>
+    <tableColumn id="3" xr3:uid="{B5E225DB-CD9B-45A8-8061-0693DB6C4F07}" name="EUR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1845,18 +1766,6 @@
     <tableColumn id="1" xr3:uid="{1E8720E8-FD73-4151-9D8E-D3AE0273F855}" name="US"/>
     <tableColumn id="2" xr3:uid="{061B98DB-309C-429A-B2EE-A245B38F3D2E}" name="UK"/>
     <tableColumn id="3" xr3:uid="{7B41B5A5-715E-4EDB-916A-2E629463A9B5}" name="EUR"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0654FFFF-BD04-49C1-8888-80CE039F28D8}" name="Table134" displayName="Table134" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{54273B06-397C-439E-906A-CD7260C6DE28}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C05BFDAD-CFDD-4323-B612-6AD2BF733AC3}" name="US"/>
-    <tableColumn id="2" xr3:uid="{61414270-F5FF-4CEA-85EC-810FBCEA131D}" name="UK"/>
-    <tableColumn id="3" xr3:uid="{B5E225DB-CD9B-45A8-8061-0693DB6C4F07}" name="EUR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2124,261 +2033,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11749ED-6149-46CD-8A38-4B284BA429BE}">
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="e" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">_xll.testFromCore()</f>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="e" cm="1">
+        <f t="array" aca="1" ref="E2:F8" ca="1">_xll.InnerMsg.TestExcelReference(B2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B1" t="e" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">_xll.leftOf(A1,"3")</f>
+      <c r="F2" t="e">
+        <f ca="1"/>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA4541B-84B9-49CF-9BF0-E9F3818E4654}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="str" cm="1">
+        <f t="array" ref="F4:H6">_xll.TestTable(Table134[#All])</f>
+        <v>US</v>
+      </c>
+      <c r="G4" t="str">
+        <v>UK</v>
+      </c>
+      <c r="H4" t="str">
+        <v>EUR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E8705D-8183-4114-9372-D25C9149B15F}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13</v>
+      </c>
+      <c r="C1" cm="1">
+        <f t="array" ref="C1:C4">_xll.TestExcelVector(A1:A4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7:I7">_xll.TestExcelVector(A7:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FE1BA1-F5C2-4BAC-98A4-5F174F0CD491}">
-  <dimension ref="A1:K7"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1568DE03-C3D6-49ED-9335-5A5049A1648C}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>1820001</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="157"/>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="157"/>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>72</v>
-      </c>
-      <c r="E2" s="1">
-        <v>156</v>
-      </c>
-      <c r="F2" s="1">
-        <v>144</v>
-      </c>
-      <c r="G2" s="1">
-        <v>144</v>
-      </c>
-      <c r="H2" s="1">
-        <v>144</v>
-      </c>
-      <c r="I2" s="1">
-        <v>144</v>
-      </c>
-      <c r="K2" t="e" cm="1">
-        <f t="array" aca="1" ref="K2" ca="1">_xll.eurHeader(A1:I5)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1820002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1">
-        <v>96</v>
-      </c>
-      <c r="G3" s="1">
-        <v>84</v>
-      </c>
-      <c r="H3" s="1">
-        <v>120</v>
-      </c>
-      <c r="I3" s="1">
-        <v>120</v>
-      </c>
-      <c r="K3" t="e" cm="1">
-        <f t="array" aca="1" ref="K3" ca="1">_xll.pvt.transfer(Table4[#All])</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>1820272</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1">
-        <v>156</v>
-      </c>
-      <c r="F4" s="1">
-        <v>144</v>
-      </c>
-      <c r="G4" s="1">
-        <v>144</v>
-      </c>
-      <c r="H4" s="1">
-        <v>144</v>
-      </c>
-      <c r="I4" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>1821166</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1">
-        <v>144</v>
-      </c>
-      <c r="F5" s="1">
-        <v>144</v>
-      </c>
-      <c r="G5" s="1">
-        <v>144</v>
-      </c>
-      <c r="H5" s="1">
-        <v>144</v>
-      </c>
-      <c r="I5" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>1821160</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>72</v>
-      </c>
-      <c r="E6" s="1">
-        <v>144</v>
-      </c>
-      <c r="F6" s="1">
-        <v>144</v>
-      </c>
-      <c r="G6" s="1">
-        <v>144</v>
-      </c>
-      <c r="H6" s="1">
-        <v>144</v>
-      </c>
-      <c r="I6" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>1821164</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>72</v>
-      </c>
-      <c r="E7" s="1">
-        <v>144</v>
-      </c>
-      <c r="F7" s="1">
-        <v>144</v>
-      </c>
-      <c r="G7" s="1">
-        <v>144</v>
-      </c>
-      <c r="H7" s="1">
-        <v>144</v>
-      </c>
-      <c r="I7" s="1">
-        <v>144</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
@@ -2387,129 +2395,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1568DE03-C3D6-49ED-9335-5A5049A1648C}">
-  <dimension ref="A1:D13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678492-3E86-45D9-AD11-8F8E281F39F4}">
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="e" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xll.eval(B2,B3)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.399999999999999" thickBot="1">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickTop="1">
-      <c r="A8" s="156" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="157"/>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="157"/>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="e" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">_xll.eval(Table13[#All],B12)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678492-3E86-45D9-AD11-8F8E281F39F4}">
-  <dimension ref="A1:AB33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:28" ht="22.8">
+    <row r="1" spans="1:28" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2533,7 +2429,7 @@
       <c r="U1" s="11"/>
       <c r="V1" s="12"/>
       <c r="W1" s="164" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="X1" s="165"/>
       <c r="Y1" s="13"/>
@@ -2541,7 +2437,7 @@
       <c r="AA1" s="13"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:28" ht="22.2">
+    <row r="2" spans="1:28" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2571,7 +2467,7 @@
       <c r="AA2" s="13"/>
       <c r="AB2" s="14"/>
     </row>
-    <row r="3" spans="1:28" ht="15.6" thickBot="1">
+    <row r="3" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2601,9 +2497,9 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="14"/>
     </row>
-    <row r="4" spans="1:28" ht="15">
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2633,7 +2529,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="14"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -2656,10 +2552,10 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="24" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="W5" s="27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="X5" s="28"/>
       <c r="Y5" s="13"/>
@@ -2667,23 +2563,23 @@
       <c r="AA5" s="13"/>
       <c r="AB5" s="14"/>
     </row>
-    <row r="6" spans="1:28" ht="15.6">
+    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
       <c r="E6" s="33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="35" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
@@ -2698,10 +2594,10 @@
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
       <c r="V6" s="24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="W6" s="170" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="X6" s="170"/>
       <c r="Y6" s="41"/>
@@ -2709,7 +2605,7 @@
       <c r="AA6" s="175"/>
       <c r="AB6" s="176"/>
     </row>
-    <row r="7" spans="1:28" ht="15.6">
+    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2739,7 +2635,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="43"/>
     </row>
-    <row r="8" spans="1:28" ht="15">
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2769,39 +2665,39 @@
       <c r="AA8" s="42"/>
       <c r="AB8" s="43"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="184" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B9" s="158" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D9" s="158" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E9" s="158" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F9" s="163" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G9" s="158" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H9" s="163" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I9" s="158" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J9" s="158" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K9" s="160" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L9" s="161"/>
       <c r="M9" s="161"/>
@@ -2811,37 +2707,37 @@
       <c r="Q9" s="161"/>
       <c r="R9" s="162"/>
       <c r="S9" s="158" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="T9" s="158" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="U9" s="171" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="V9" s="173" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W9" s="179" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="X9" s="181" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Y9" s="183" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="Z9" s="177" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AA9" s="177" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="178" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="185"/>
       <c r="B10" s="159"/>
       <c r="C10" s="193"/>
@@ -2887,7 +2783,7 @@
       <c r="AA10" s="177"/>
       <c r="AB10" s="178"/>
     </row>
-    <row r="11" spans="1:28" ht="27.6">
+    <row r="11" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="186">
         <v>16501</v>
       </c>
@@ -2898,20 +2794,20 @@
         <v>532325</v>
       </c>
       <c r="D11" s="186" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E11" s="187" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F11" s="186" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G11" s="186"/>
       <c r="H11" s="187" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I11" s="187" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J11" s="188"/>
       <c r="K11" s="52">
@@ -2949,13 +2845,13 @@
         <v>2040</v>
       </c>
       <c r="V11" s="56" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W11" s="191" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="X11" s="57" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="Y11" s="194">
         <v>43171</v>
@@ -2967,7 +2863,7 @@
         <v>7.2913424999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="27.6">
+    <row r="12" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="186"/>
       <c r="B12" s="186"/>
       <c r="C12" s="51">
@@ -3015,11 +2911,11 @@
         <v>980</v>
       </c>
       <c r="V12" s="56" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="W12" s="191"/>
       <c r="X12" s="57" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Y12" s="195"/>
       <c r="Z12" s="30"/>
@@ -3029,7 +2925,7 @@
         <v>3.5442557500000005</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.6">
+    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="186"/>
       <c r="B13" s="186"/>
       <c r="C13" s="51">
@@ -3063,11 +2959,11 @@
         <v>96</v>
       </c>
       <c r="V13" s="59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W13" s="191"/>
       <c r="X13" s="196" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="Y13" s="195"/>
       <c r="Z13" s="30"/>
@@ -3077,7 +2973,7 @@
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.6">
+    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="186"/>
       <c r="B14" s="186"/>
       <c r="C14" s="51">
@@ -3111,7 +3007,7 @@
         <v>96</v>
       </c>
       <c r="V14" s="59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W14" s="191"/>
       <c r="X14" s="197"/>
@@ -3123,7 +3019,7 @@
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.6">
+    <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="186"/>
       <c r="B15" s="186"/>
       <c r="C15" s="51">
@@ -3157,7 +3053,7 @@
         <v>96</v>
       </c>
       <c r="V15" s="59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W15" s="191"/>
       <c r="X15" s="197"/>
@@ -3169,7 +3065,7 @@
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.6">
+    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="186"/>
       <c r="B16" s="186"/>
       <c r="C16" s="51">
@@ -3203,7 +3099,7 @@
         <v>96</v>
       </c>
       <c r="V16" s="59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W16" s="191"/>
       <c r="X16" s="197"/>
@@ -3215,7 +3111,7 @@
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.6">
+    <row r="17" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="186"/>
       <c r="B17" s="186"/>
       <c r="C17" s="51">
@@ -3249,7 +3145,7 @@
         <v>96</v>
       </c>
       <c r="V17" s="59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W17" s="191"/>
       <c r="X17" s="197"/>
@@ -3261,7 +3157,7 @@
         <v>0.33982275000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="186"/>
       <c r="B18" s="186"/>
       <c r="C18" s="186"/>
@@ -3306,9 +3202,9 @@
         <v>12.534711999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.6">
+    <row r="19" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -3343,12 +3239,12 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -3356,10 +3252,10 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="78" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
@@ -3369,7 +3265,7 @@
       <c r="N20" s="82"/>
       <c r="P20" s="83"/>
       <c r="Q20" s="84" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="R20" s="85"/>
       <c r="S20" s="86"/>
@@ -3383,9 +3279,9 @@
       <c r="AA20" s="91"/>
       <c r="AB20" s="92"/>
     </row>
-    <row r="21" spans="1:28" ht="18">
+    <row r="21" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
@@ -3393,7 +3289,7 @@
       <c r="E21" s="97"/>
       <c r="F21" s="97"/>
       <c r="G21" s="98" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H21" s="99"/>
       <c r="I21" s="99"/>
@@ -3404,7 +3300,7 @@
       <c r="N21" s="101"/>
       <c r="P21" s="100"/>
       <c r="Q21" s="102" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R21" s="103"/>
       <c r="S21" s="104"/>
@@ -3417,7 +3313,7 @@
       <c r="AA21" s="107"/>
       <c r="AB21" s="92"/>
     </row>
-    <row r="22" spans="1:28" ht="18">
+    <row r="22" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="109"/>
@@ -3425,7 +3321,7 @@
       <c r="E22" s="111"/>
       <c r="F22" s="111"/>
       <c r="G22" s="112" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
@@ -3436,7 +3332,7 @@
       <c r="N22" s="116"/>
       <c r="P22" s="117"/>
       <c r="Q22" s="102" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="R22" s="103"/>
       <c r="S22" s="104"/>
@@ -3449,9 +3345,9 @@
       <c r="AA22" s="107"/>
       <c r="AB22" s="92"/>
     </row>
-    <row r="23" spans="1:28" ht="18">
+    <row r="23" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -3459,7 +3355,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="112" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H23" s="118"/>
       <c r="I23" s="118"/>
@@ -3470,7 +3366,7 @@
       <c r="N23" s="116"/>
       <c r="P23" s="115"/>
       <c r="Q23" s="102" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="R23" s="103"/>
       <c r="S23" s="104"/>
@@ -3483,9 +3379,9 @@
       <c r="AA23" s="107"/>
       <c r="AB23" s="92"/>
     </row>
-    <row r="24" spans="1:28" ht="18">
+    <row r="24" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="121" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -3493,7 +3389,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="122" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="123"/>
@@ -3502,7 +3398,7 @@
       <c r="L24" s="123"/>
       <c r="N24" s="107"/>
       <c r="Q24" s="124" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="R24" s="125"/>
       <c r="S24" s="104"/>
@@ -3515,9 +3411,9 @@
       <c r="AA24" s="107"/>
       <c r="AB24" s="92"/>
     </row>
-    <row r="25" spans="1:28" ht="18">
+    <row r="25" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="121" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -3533,7 +3429,7 @@
       <c r="N25" s="101"/>
       <c r="P25" s="100"/>
       <c r="Q25" s="102" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="R25" s="103"/>
       <c r="S25" s="104"/>
@@ -3546,7 +3442,7 @@
       <c r="AA25" s="107"/>
       <c r="AB25" s="92"/>
     </row>
-    <row r="26" spans="1:28" ht="18">
+    <row r="26" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="126"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -3554,7 +3450,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="127" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H26" s="128"/>
       <c r="I26" s="118"/>
@@ -3565,7 +3461,7 @@
       <c r="N26" s="129"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="124" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="R26" s="125"/>
       <c r="S26" s="104"/>
@@ -3578,7 +3474,7 @@
       <c r="AA26" s="107"/>
       <c r="AB26" s="92"/>
     </row>
-    <row r="27" spans="1:28" ht="18">
+    <row r="27" spans="1:28" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="130"/>
       <c r="B27" s="131"/>
       <c r="C27" s="131"/>
@@ -3586,7 +3482,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="133" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H27" s="134"/>
       <c r="I27" s="134"/>
@@ -3609,7 +3505,7 @@
       <c r="AA27" s="147"/>
       <c r="AB27" s="92"/>
     </row>
-    <row r="28" spans="1:28" ht="15">
+    <row r="28" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -3635,7 +3531,7 @@
       <c r="W28" s="153"/>
       <c r="AB28" s="92"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -3661,18 +3557,6 @@
       <c r="W29" s="25"/>
       <c r="X29" s="28"/>
       <c r="AB29" s="92"/>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="D31" t="e" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">range(U9)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="e" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">_xll.raw(A1:AB27)</f>
-        <v>#NAME?</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3716,93 +3600,9 @@
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="F9:F10"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA4541B-84B9-49CF-9BF0-E9F3818E4654}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4:H6">_xll.TestTable(Table134[#All])</f>
-        <v>US</v>
-      </c>
-      <c r="G4" t="str">
-        <v>UK</v>
-      </c>
-      <c r="H4" t="str">
-        <v>EUR</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/tests/CellScript.Client.Tests/datas/book1.xlsx
+++ b/tests/CellScript.Client.Tests/datas/book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E108903E-C620-47A2-9879-925039D137BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4709D1B-29EB-4969-A2C2-3811C2BA37E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,6 +126,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -141,6 +142,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  客人型号</t>
@@ -155,6 +157,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -170,6 +173,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>颜色</t>
@@ -187,6 +191,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片</t>
@@ -205,6 +210,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -227,6 +233,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>对</t>
@@ -245,6 +252,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>箱</t>
@@ -259,6 +267,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -274,6 +283,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>箱号</t>
@@ -345,6 +355,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>配码：</t>
@@ -402,6 +413,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>我司订单成型一律不准外发，针车如特殊情况要外发必须我司</t>
@@ -418,6 +430,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>确认过外加工厂后方可外发</t>
@@ -440,6 +453,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产包装颜色参照我司包装资料，大货包装前需给我司业务确认后方可操作</t>
@@ -469,7 +483,7 @@
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
-    <t>#load "Packages.fsx"                                         
+    <t>#load "..\\Packages.fsx"                                         
 open CellScript.Core
 fun (table: Table) -&gt;
     table</t>
@@ -543,6 +557,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -560,6 +575,7 @@
       <u/>
       <sz val="22"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -571,12 +587,14 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -594,6 +612,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -605,6 +624,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -616,17 +636,20 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -644,6 +667,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -657,6 +681,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -669,6 +694,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -680,6 +706,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -692,6 +719,7 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -732,12 +760,14 @@
       <sz val="11"/>
       <color indexed="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1525,45 +1555,105 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="11" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="16" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="6" borderId="11" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1576,73 +1666,13 @@
     <xf numFmtId="177" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="11" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="16" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2037,7 +2067,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2322,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2428,10 +2458,10 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="164" t="s">
+      <c r="W1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="165"/>
+      <c r="X1" s="186"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
@@ -2460,8 +2490,8 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="167"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="188"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
@@ -2490,8 +2520,8 @@
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="169"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="190"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
@@ -2596,14 +2626,14 @@
       <c r="V6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="170" t="s">
+      <c r="W6" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="170"/>
+      <c r="X6" s="178"/>
       <c r="Y6" s="41"/>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="176"/>
+      <c r="AA6" s="176"/>
+      <c r="AB6" s="177"/>
     </row>
     <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
@@ -2628,8 +2658,8 @@
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
       <c r="Y7" s="41"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="42"/>
@@ -2666,88 +2696,88 @@
       <c r="AB8" s="43"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="163" t="s">
+      <c r="F9" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="158" t="s">
+      <c r="G9" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="163" t="s">
+      <c r="H9" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="158" t="s">
+      <c r="I9" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="158" t="s">
+      <c r="J9" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="160" t="s">
+      <c r="K9" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="158" t="s">
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="197"/>
+      <c r="S9" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="158" t="s">
+      <c r="T9" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="171" t="s">
+      <c r="U9" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="173" t="s">
+      <c r="V9" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="W9" s="179" t="s">
+      <c r="W9" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="181" t="s">
+      <c r="X9" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="183" t="s">
+      <c r="Y9" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="177" t="s">
+      <c r="Z9" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="AA9" s="177" t="s">
+      <c r="AA9" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="AB9" s="178" t="s">
+      <c r="AB9" s="180" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
       <c r="K10" s="49">
         <v>28</v>
       </c>
@@ -2772,44 +2802,44 @@
       <c r="R10" s="49">
         <v>35</v>
       </c>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="178"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="180"/>
     </row>
     <row r="11" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="186">
+      <c r="A11" s="164">
         <v>16501</v>
       </c>
-      <c r="B11" s="186">
+      <c r="B11" s="164">
         <v>91338035</v>
       </c>
       <c r="C11" s="51">
         <v>532325</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="186"/>
-      <c r="H11" s="187" t="s">
+      <c r="G11" s="164"/>
+      <c r="H11" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="187" t="s">
+      <c r="I11" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="188"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="52">
         <v>1</v>
       </c>
@@ -2847,13 +2877,13 @@
       <c r="V11" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="191" t="s">
+      <c r="W11" s="170" t="s">
         <v>42</v>
       </c>
       <c r="X11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="Y11" s="194">
+      <c r="Y11" s="158">
         <v>43171</v>
       </c>
       <c r="Z11" s="30"/>
@@ -2864,18 +2894,18 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="51">
         <v>532326</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="189"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="52">
         <v>1</v>
       </c>
@@ -2913,11 +2943,11 @@
       <c r="V12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="191"/>
+      <c r="W12" s="170"/>
       <c r="X12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Y12" s="195"/>
+      <c r="Y12" s="159"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="58">
@@ -2926,18 +2956,18 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="51">
         <v>533180</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="189"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="163"/>
       <c r="K13" s="52"/>
       <c r="L13" s="53"/>
       <c r="M13" s="52">
@@ -2961,11 +2991,11 @@
       <c r="V13" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W13" s="191"/>
-      <c r="X13" s="196" t="s">
+      <c r="W13" s="170"/>
+      <c r="X13" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" s="195"/>
+      <c r="Y13" s="159"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="58">
@@ -2974,18 +3004,18 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="164"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="51">
         <v>533181</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="190"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="169"/>
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
       <c r="M14" s="52"/>
@@ -3009,9 +3039,9 @@
       <c r="V14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W14" s="191"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="195"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="159"/>
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
       <c r="AB14" s="58">
@@ -3020,18 +3050,18 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="51">
         <v>533182</v>
       </c>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="189"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="52"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -3055,9 +3085,9 @@
       <c r="V15" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W15" s="191"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="183"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="160"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
       <c r="AB15" s="58">
@@ -3066,18 +3096,18 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="51">
         <v>533183</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="189"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="163"/>
       <c r="K16" s="52"/>
       <c r="L16" s="53"/>
       <c r="M16" s="53"/>
@@ -3101,9 +3131,9 @@
       <c r="V16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W16" s="191"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="183"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="160"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
       <c r="AB16" s="58">
@@ -3112,18 +3142,18 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="51">
         <v>533184</v>
       </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="189"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="163"/>
       <c r="K17" s="52"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
@@ -3147,9 +3177,9 @@
       <c r="V17" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W17" s="191"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="183"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="160"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="30"/>
       <c r="AB17" s="58">
@@ -3158,25 +3188,25 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
       <c r="T18" s="61">
         <f>SUM(T11:T17)</f>
         <v>298</v>
@@ -3560,11 +3590,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="Y11:Y17"/>
-    <mergeCell ref="X13:X17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="H11:H17"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="W1:X3"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A18:S18"/>
     <mergeCell ref="I11:I17"/>
@@ -3581,24 +3624,11 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="W1:X3"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="Y11:Y17"/>
+    <mergeCell ref="X13:X17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="H11:H17"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
